--- a/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.149808843451627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5310408329435006</v>
+        <v>0.5310408329435002</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4662465545176714</v>
@@ -649,7 +649,7 @@
         <v>0.1725380314866333</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2592224214503676</v>
+        <v>0.2592224214503674</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.533923556197117</v>
+        <v>-2.509729204508689</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.714092544350871</v>
+        <v>-1.541630001140013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8300770579940494</v>
+        <v>-0.8673379941260838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8878541596247722</v>
+        <v>-0.9905723244969802</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8152796404689654</v>
+        <v>-0.7927845979755671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5106696127147056</v>
+        <v>-0.4803914313135101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6690618158594176</v>
+        <v>-0.7142185512794769</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3546641824059514</v>
+        <v>-0.3562952543187801</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1541546530595442</v>
+        <v>0.2802700698645716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.845150796493364</v>
+        <v>1.87299119047309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.396795904916179</v>
+        <v>1.197242536767305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.127833762018098</v>
+        <v>2.113625117895644</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1637106973920298</v>
+        <v>0.2784020347116615</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.082465349071652</v>
+        <v>1.137041682509463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.626165609536046</v>
+        <v>3.62484407911399</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.667538088837831</v>
+        <v>1.508847784088468</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.2908982061720671</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7231409941939847</v>
+        <v>0.7231409941939844</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1613753824515279</v>
@@ -749,7 +749,7 @@
         <v>0.3093696583329011</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3054849677323405</v>
+        <v>0.3054849677323403</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.9752382925319325</v>
+        <v>-0.9196308692317365</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.8372691723193574</v>
+        <v>-0.7861826083526662</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6352499347816651</v>
+        <v>-0.6952791128561957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6374566025048179</v>
+        <v>-0.8656798478661329</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4960076863411946</v>
+        <v>-0.4693249547811882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.390975967414982</v>
+        <v>-0.3737213420828443</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5040403215993795</v>
+        <v>-0.5626538668763513</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2022881235448976</v>
+        <v>-0.2686357952434672</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.342800609672267</v>
+        <v>1.251526472864499</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.678714658824265</v>
+        <v>1.771036316545745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.353116901463637</v>
+        <v>1.327940008081498</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.02170886626903</v>
+        <v>1.845225150472709</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.630280861387158</v>
+        <v>1.374632418456914</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.613237817908512</v>
+        <v>1.575491736405613</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.685817427976648</v>
+        <v>2.665054246864293</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.386650250854824</v>
+        <v>1.148414617976664</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8330970844641907</v>
+        <v>-0.8355375277112602</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7353290100900373</v>
+        <v>-0.931035793833212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.322386206996246</v>
+        <v>-1.209141201015094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.519401992319958</v>
+        <v>-1.442275585259565</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5665336395879509</v>
+        <v>-0.525069979430049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.581397562347214</v>
+        <v>-0.6358484110098329</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8014262245778951</v>
+        <v>-0.8359316563490875</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2943740613083856</v>
+        <v>-0.2813158557918404</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.787361737842281</v>
+        <v>1.737802421971676</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.619079065642929</v>
+        <v>1.60551452329757</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9155248495231395</v>
+        <v>0.9760285129131092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.660447152221626</v>
+        <v>2.753255184379205</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.250887134072441</v>
+        <v>3.45059051300375</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.768463763962208</v>
+        <v>2.827847460924611</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.144017486423812</v>
+        <v>3.308154807325125</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.920563616969977</v>
+        <v>0.9492509642962926</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>-0.1440316095148413</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.574070312645654</v>
+        <v>0.5740703126456539</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5850465603696783</v>
+        <v>-0.5736353264604099</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3255385036108692</v>
+        <v>-0.396044056814884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.287234179152083</v>
+        <v>-1.202735839738251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1049081271920031</v>
+        <v>-0.1653195850011667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3147234279253552</v>
+        <v>-0.3089938003715098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1644017912220515</v>
+        <v>-0.184927963560504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6686521983561687</v>
+        <v>-0.6636904258120331</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05766555460388655</v>
+        <v>-0.08185465313852285</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.753083616642843</v>
+        <v>1.745698636772456</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.397236305659262</v>
+        <v>2.340693161420704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7385287387252022</v>
+        <v>0.8156262275657936</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.027438222209448</v>
+        <v>2.055309297787426</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.977055534292752</v>
+        <v>1.859855244630704</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.35570195162374</v>
+        <v>2.370297019876771</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9826644523490857</v>
+        <v>1.17638158774554</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.730473237627799</v>
+        <v>1.756391869207204</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.04923872643423245</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7384182323910169</v>
+        <v>0.7384182323910162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07104410661191385</v>
@@ -1049,7 +1049,7 @@
         <v>0.04851195184462889</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2964229972996462</v>
+        <v>0.2964229972996459</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4513283252206783</v>
+        <v>-0.4624230264872249</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2630052867446616</v>
+        <v>-0.1899478696434681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.463739505291284</v>
+        <v>-0.4348744778278926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.03848559805666515</v>
+        <v>-0.1226744177080743</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2472561590144333</v>
+        <v>-0.2529513866339032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1273298271975727</v>
+        <v>-0.09256625864397504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3638653416422708</v>
+        <v>-0.3521521695215666</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0146009150553193</v>
+        <v>-0.04779112797860226</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7509208636475755</v>
+        <v>0.7225579517373297</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.174666570128533</v>
+        <v>1.218949075722497</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5846941016534832</v>
+        <v>0.5636961018744696</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.452014340155555</v>
+        <v>1.461596761024008</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6057394098469125</v>
+        <v>0.600614403553824</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8518068160194631</v>
+        <v>0.8733892452994412</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7594384307022163</v>
+        <v>0.7638186487901784</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6923980980319234</v>
+        <v>0.6805716690360866</v>
       </c>
     </row>
     <row r="19">
